--- a/doc/99.Other/importData/交割单/交割单--招商普通.xlsx
+++ b/doc/99.Other/importData/交割单/交割单--招商普通.xlsx
@@ -975,7 +975,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,8 +1289,8 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>"证券卖出(濮耐股份)"</f>
-        <v>证券卖出(濮耐股份)</v>
+        <f>"证券mc(濮耐股份)"</f>
+        <v>证券mc(濮耐股份)</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>"12.71"</f>
